--- a/Players.xlsx
+++ b/Players.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,106 @@
           <t>Team</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Matches Played</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Matches Selected</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Matches Started</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Matches as a Sub</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Captain</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Minutes Played</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Came On</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Minutes as a Sub</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Temporary Sub</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Came Off</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Tries</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Drop Goals</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Conversion Attempts</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Conversion Scored</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Penalties Attempts</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Penalties Scored</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Sin Bin</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Rescinded</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Red Card</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -19904,7 +19904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A200"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19918,6 +19918,146 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>MK</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>BH</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>BTS</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>KON</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>LS</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>YC</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -19904,7 +19904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AH200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20058,6 +20058,31 @@
           <t>RC</t>
         </is>
       </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Position No</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Position No</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20149,6 +20174,23 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20240,6 +20282,23 @@
       <c r="AC3" t="n">
         <v>0</v>
       </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20331,6 +20390,23 @@
       <c r="AC4" t="n">
         <v>0</v>
       </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20422,6 +20498,23 @@
       <c r="AC5" t="n">
         <v>0</v>
       </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20513,6 +20606,23 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20604,6 +20714,23 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20611,6 +20738,23 @@
           <t>James Tracy</t>
         </is>
       </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20702,6 +20846,23 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20793,6 +20954,23 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -20884,6 +21062,23 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20975,6 +21170,23 @@
       <c r="AC12" t="n">
         <v>0</v>
       </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -21066,6 +21278,23 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -21157,6 +21386,23 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -21164,6 +21410,23 @@
           <t>Dave Kearney</t>
         </is>
       </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -21255,6 +21518,23 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21346,6 +21626,23 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -21437,6 +21734,23 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21444,6 +21758,23 @@
           <t>Stuart McCloskey</t>
         </is>
       </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21535,6 +21866,23 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21626,6 +21974,23 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -21717,6 +22082,23 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -21808,6 +22190,23 @@
       <c r="AC23" t="n">
         <v>0</v>
       </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21815,6 +22214,23 @@
           <t>Tadgh Beirne</t>
         </is>
       </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21906,6 +22322,23 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21997,6 +22430,23 @@
       <c r="AC26" t="n">
         <v>0</v>
       </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22088,6 +22538,23 @@
       <c r="AC27" t="n">
         <v>0</v>
       </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22179,6 +22646,23 @@
       <c r="AC28" t="n">
         <v>0</v>
       </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22186,6 +22670,23 @@
           <t>Selevasio Tolofua</t>
         </is>
       </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22277,6 +22778,23 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22368,6 +22886,23 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22459,6 +22994,23 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22550,6 +23102,23 @@
       <c r="AC33" t="n">
         <v>0</v>
       </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22641,6 +23210,23 @@
       <c r="AC34" t="n">
         <v>0</v>
       </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22648,6 +23234,23 @@
           <t>Henry Pyrgos</t>
         </is>
       </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22739,6 +23342,23 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22830,6 +23450,23 @@
       <c r="AC37" t="n">
         <v>0</v>
       </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22921,6 +23558,23 @@
       <c r="AC38" t="n">
         <v>0</v>
       </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23012,6 +23666,23 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23103,6 +23774,23 @@
       <c r="AC40" t="n">
         <v>0</v>
       </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -23194,6 +23882,23 @@
       <c r="AC41" t="n">
         <v>0</v>
       </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -23285,6 +23990,23 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -23376,6 +24098,23 @@
       <c r="AC43" t="n">
         <v>0</v>
       </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -23467,6 +24206,23 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -23558,6 +24314,23 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -23649,6 +24422,23 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -23740,6 +24530,23 @@
       <c r="AC47" t="n">
         <v>0</v>
       </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -23831,6 +24638,23 @@
       <c r="AC48" t="n">
         <v>0</v>
       </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -23922,6 +24746,23 @@
       <c r="AC49" t="n">
         <v>0</v>
       </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -24013,6 +24854,23 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -24104,6 +24962,23 @@
       <c r="AC51" t="n">
         <v>0</v>
       </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -24195,6 +25070,23 @@
       <c r="AC52" t="n">
         <v>0</v>
       </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -24286,6 +25178,23 @@
       <c r="AC53" t="n">
         <v>0</v>
       </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -24377,6 +25286,23 @@
       <c r="AC54" t="n">
         <v>0</v>
       </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -24468,6 +25394,23 @@
       <c r="AC55" t="n">
         <v>0</v>
       </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -24559,6 +25502,23 @@
       <c r="AC56" t="n">
         <v>0</v>
       </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -24566,6 +25526,23 @@
           <t>Matt Scott</t>
         </is>
       </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -24657,6 +25634,23 @@
       <c r="AC58" t="n">
         <v>0</v>
       </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -24748,6 +25742,23 @@
       <c r="AC59" t="n">
         <v>0</v>
       </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -24839,6 +25850,23 @@
       <c r="AC60" t="n">
         <v>0</v>
       </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -24846,6 +25874,23 @@
           <t>Luke Crosbie</t>
         </is>
       </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -24937,6 +25982,23 @@
       <c r="AC62" t="n">
         <v>0</v>
       </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -25028,6 +26090,23 @@
       <c r="AC63" t="n">
         <v>0</v>
       </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -25119,6 +26198,23 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -25210,6 +26306,23 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -25301,6 +26414,23 @@
       <c r="AC66" t="n">
         <v>0</v>
       </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -25392,6 +26522,23 @@
       <c r="AC67" t="n">
         <v>0</v>
       </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -25483,6 +26630,23 @@
       <c r="AC68" t="n">
         <v>0</v>
       </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -25574,6 +26738,23 @@
       <c r="AC69" t="n">
         <v>0</v>
       </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -25665,6 +26846,23 @@
       <c r="AC70" t="n">
         <v>0</v>
       </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -25756,6 +26954,23 @@
       <c r="AC71" t="n">
         <v>0</v>
       </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -25847,6 +27062,23 @@
       <c r="AC72" t="n">
         <v>0</v>
       </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -25938,6 +27170,23 @@
       <c r="AC73" t="n">
         <v>0</v>
       </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -26029,6 +27278,23 @@
       <c r="AC74" t="n">
         <v>0</v>
       </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -26036,6 +27302,23 @@
           <t>Josh Van der Flier</t>
         </is>
       </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -26127,6 +27410,23 @@
       <c r="AC76" t="n">
         <v>0</v>
       </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -26218,6 +27518,23 @@
       <c r="AC77" t="n">
         <v>0</v>
       </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -26309,6 +27626,23 @@
       <c r="AC78" t="n">
         <v>0</v>
       </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -26400,6 +27734,23 @@
       <c r="AC79" t="n">
         <v>0</v>
       </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -26491,6 +27842,23 @@
       <c r="AC80" t="n">
         <v>0</v>
       </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -26582,6 +27950,23 @@
       <c r="AC81" t="n">
         <v>0</v>
       </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -26673,6 +28058,23 @@
       <c r="AC82" t="n">
         <v>0</v>
       </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -26764,6 +28166,23 @@
       <c r="AC83" t="n">
         <v>0</v>
       </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -26855,6 +28274,23 @@
       <c r="AC84" t="n">
         <v>0</v>
       </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -26946,6 +28382,23 @@
       <c r="AC85" t="n">
         <v>0</v>
       </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -27037,6 +28490,23 @@
       <c r="AC86" t="n">
         <v>0</v>
       </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -27128,6 +28598,23 @@
       <c r="AC87" t="n">
         <v>0</v>
       </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -27219,6 +28706,23 @@
       <c r="AC88" t="n">
         <v>0</v>
       </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -27310,6 +28814,23 @@
       <c r="AC89" t="n">
         <v>0</v>
       </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -27401,6 +28922,23 @@
       <c r="AC90" t="n">
         <v>0</v>
       </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -27492,6 +29030,23 @@
       <c r="AC91" t="n">
         <v>0</v>
       </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -27583,6 +29138,23 @@
       <c r="AC92" t="n">
         <v>0</v>
       </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -27674,6 +29246,23 @@
       <c r="AC93" t="n">
         <v>0</v>
       </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
+      <c r="AE93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -27765,6 +29354,23 @@
       <c r="AC94" t="n">
         <v>0</v>
       </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -27856,6 +29462,23 @@
       <c r="AC95" t="n">
         <v>0</v>
       </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE95" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -27947,6 +29570,23 @@
       <c r="AC96" t="n">
         <v>0</v>
       </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE96" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -27954,6 +29594,23 @@
           <t>Alexandre Fischer</t>
         </is>
       </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -28045,6 +29702,23 @@
       <c r="AC98" t="n">
         <v>1</v>
       </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -28136,6 +29810,23 @@
       <c r="AC99" t="n">
         <v>0</v>
       </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -28143,6 +29834,23 @@
           <t>Gabriel Ngandebe</t>
         </is>
       </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -28234,6 +29942,23 @@
       <c r="AC101" t="n">
         <v>0</v>
       </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -28325,6 +30050,23 @@
       <c r="AC102" t="n">
         <v>0</v>
       </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -28416,6 +30158,23 @@
       <c r="AC103" t="n">
         <v>0</v>
       </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -28507,6 +30266,23 @@
       <c r="AC104" t="n">
         <v>0</v>
       </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -28598,6 +30374,23 @@
       <c r="AC105" t="n">
         <v>0</v>
       </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -28689,6 +30482,23 @@
       <c r="AC106" t="n">
         <v>0</v>
       </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -28780,6 +30590,23 @@
       <c r="AC107" t="n">
         <v>1</v>
       </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -28871,6 +30698,23 @@
       <c r="AC108" t="n">
         <v>0</v>
       </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -28962,6 +30806,23 @@
       <c r="AC109" t="n">
         <v>0</v>
       </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -29053,6 +30914,23 @@
       <c r="AC110" t="n">
         <v>0</v>
       </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -29144,6 +31022,23 @@
       <c r="AC111" t="n">
         <v>0</v>
       </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -29235,6 +31130,23 @@
       <c r="AC112" t="n">
         <v>0</v>
       </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -29242,6 +31154,23 @@
           <t>Anthony Etrillard</t>
         </is>
       </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29333,6 +31262,23 @@
       <c r="AC114" t="n">
         <v>0</v>
       </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29424,6 +31370,23 @@
       <c r="AC115" t="n">
         <v>0</v>
       </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29515,6 +31478,23 @@
       <c r="AC116" t="n">
         <v>0</v>
       </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29606,6 +31586,23 @@
       <c r="AC117" t="n">
         <v>0</v>
       </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29697,6 +31694,23 @@
       <c r="AC118" t="n">
         <v>0</v>
       </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29788,6 +31802,23 @@
       <c r="AC119" t="n">
         <v>0</v>
       </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29879,6 +31910,23 @@
       <c r="AC120" t="n">
         <v>0</v>
       </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -29970,6 +32018,23 @@
       <c r="AC121" t="n">
         <v>0</v>
       </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30061,6 +32126,23 @@
       <c r="AC122" t="n">
         <v>0</v>
       </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30152,6 +32234,23 @@
       <c r="AC123" t="n">
         <v>1</v>
       </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30243,6 +32342,23 @@
       <c r="AC124" t="n">
         <v>0</v>
       </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -30334,6 +32450,23 @@
       <c r="AC125" t="n">
         <v>0</v>
       </c>
+      <c r="AD125" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -30341,6 +32474,23 @@
           <t>Owen Lane</t>
         </is>
       </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -30348,6 +32498,23 @@
           <t>Alex Moon</t>
         </is>
       </c>
+      <c r="AD127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -30439,6 +32606,23 @@
       <c r="AC128" t="n">
         <v>0</v>
       </c>
+      <c r="AD128" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -30530,6 +32714,23 @@
       <c r="AC129" t="n">
         <v>0</v>
       </c>
+      <c r="AD129" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -30621,6 +32822,23 @@
       <c r="AC130" t="n">
         <v>0</v>
       </c>
+      <c r="AD130" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -30712,6 +32930,23 @@
       <c r="AC131" t="n">
         <v>0</v>
       </c>
+      <c r="AD131" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -30803,6 +33038,23 @@
       <c r="AC132" t="n">
         <v>0</v>
       </c>
+      <c r="AD132" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -30894,6 +33146,23 @@
       <c r="AC133" t="n">
         <v>0</v>
       </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -30985,6 +33254,23 @@
       <c r="AC134" t="n">
         <v>0</v>
       </c>
+      <c r="AD134" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -31076,6 +33362,23 @@
       <c r="AC135" t="n">
         <v>0</v>
       </c>
+      <c r="AD135" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -31167,6 +33470,23 @@
       <c r="AC136" t="n">
         <v>1</v>
       </c>
+      <c r="AD136" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -31174,6 +33494,23 @@
           <t>Lester Etien</t>
         </is>
       </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -31265,6 +33602,23 @@
       <c r="AC138" t="n">
         <v>0</v>
       </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31272,6 +33626,23 @@
           <t>Ratu Tagive</t>
         </is>
       </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31363,6 +33734,23 @@
       <c r="AC140" t="n">
         <v>0</v>
       </c>
+      <c r="AD140" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31454,6 +33842,23 @@
       <c r="AC141" t="n">
         <v>0</v>
       </c>
+      <c r="AD141" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31461,6 +33866,23 @@
           <t>Jamie Bhattie</t>
         </is>
       </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31468,6 +33890,23 @@
           <t>Coenie Oosthuizen</t>
         </is>
       </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31559,6 +33998,23 @@
       <c r="AC144" t="n">
         <v>0</v>
       </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
+      <c r="AE144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31650,6 +34106,23 @@
       <c r="AC145" t="n">
         <v>0</v>
       </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31741,6 +34214,23 @@
       <c r="AC146" t="n">
         <v>1</v>
       </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31832,6 +34322,23 @@
       <c r="AC147" t="n">
         <v>0</v>
       </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31923,6 +34430,23 @@
       <c r="AC148" t="n">
         <v>0</v>
       </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31930,6 +34454,23 @@
           <t>Bernard Le Roux</t>
         </is>
       </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32021,6 +34562,23 @@
       <c r="AC150" t="n">
         <v>0</v>
       </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32112,6 +34670,23 @@
       <c r="AC151" t="n">
         <v>0</v>
       </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32119,6 +34694,23 @@
           <t>Fraser Dingwall</t>
         </is>
       </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32126,6 +34718,23 @@
           <t>Shane Daly</t>
         </is>
       </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32133,6 +34742,23 @@
           <t>Seb Davies</t>
         </is>
       </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32224,6 +34850,23 @@
       <c r="AC155" t="n">
         <v>0</v>
       </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32315,6 +34958,23 @@
       <c r="AC156" t="n">
         <v>0</v>
       </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -32322,6 +34982,23 @@
           <t>Thomas Gordon</t>
         </is>
       </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -32413,6 +35090,23 @@
       <c r="AC158" t="n">
         <v>0</v>
       </c>
+      <c r="AD158" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE158" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -32504,6 +35198,23 @@
       <c r="AC159" t="n">
         <v>0</v>
       </c>
+      <c r="AD159" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -32595,6 +35306,23 @@
       <c r="AC160" t="n">
         <v>0</v>
       </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -32686,6 +35414,23 @@
       <c r="AC161" t="n">
         <v>0</v>
       </c>
+      <c r="AD161" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -32777,6 +35522,23 @@
       <c r="AC162" t="n">
         <v>0</v>
       </c>
+      <c r="AD162" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -32868,6 +35630,23 @@
       <c r="AC163" t="n">
         <v>1</v>
       </c>
+      <c r="AD163" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -32959,6 +35738,23 @@
       <c r="AC164" t="n">
         <v>0</v>
       </c>
+      <c r="AD164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -32966,6 +35762,23 @@
           <t>Kylan Hamdaoui</t>
         </is>
       </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -33057,6 +35870,23 @@
       <c r="AC166" t="n">
         <v>0</v>
       </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -33148,6 +35978,23 @@
       <c r="AC167" t="n">
         <v>0</v>
       </c>
+      <c r="AD167" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
+      <c r="AE167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -33239,6 +36086,23 @@
       <c r="AC168" t="n">
         <v>0</v>
       </c>
+      <c r="AD168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -33330,6 +36194,23 @@
       <c r="AC169" t="n">
         <v>0</v>
       </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
+      <c r="AE169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -33421,6 +36302,23 @@
       <c r="AC170" t="n">
         <v>0</v>
       </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -33428,6 +36326,23 @@
           <t>Mohammed Haouas</t>
         </is>
       </c>
+      <c r="AD171" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -33519,6 +36434,23 @@
       <c r="AC172" t="n">
         <v>0</v>
       </c>
+      <c r="AD172" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -33610,6 +36542,23 @@
       <c r="AC173" t="n">
         <v>0</v>
       </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -33701,6 +36650,23 @@
       <c r="AC174" t="n">
         <v>0</v>
       </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -33792,6 +36758,23 @@
       <c r="AC175" t="n">
         <v>0</v>
       </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -33883,6 +36866,23 @@
       <c r="AC176" t="n">
         <v>0</v>
       </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
+      <c r="AE176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -33974,6 +36974,23 @@
       <c r="AC177" t="n">
         <v>0</v>
       </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -33981,6 +36998,23 @@
           <t>Will John</t>
         </is>
       </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -34072,6 +37106,23 @@
       <c r="AC179" t="n">
         <v>0</v>
       </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -34079,6 +37130,23 @@
           <t>Sebastian Negri da Ollegio</t>
         </is>
       </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -34170,6 +37238,23 @@
       <c r="AC181" t="n">
         <v>0</v>
       </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -34261,6 +37346,23 @@
       <c r="AC182" t="n">
         <v>0</v>
       </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -34352,6 +37454,23 @@
       <c r="AC183" t="n">
         <v>0</v>
       </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
+      <c r="AE183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -34443,6 +37562,23 @@
       <c r="AC184" t="n">
         <v>0</v>
       </c>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -34534,6 +37670,23 @@
       <c r="AC185" t="n">
         <v>0</v>
       </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
+      <c r="AE185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -34625,6 +37778,23 @@
       <c r="AC186" t="n">
         <v>0</v>
       </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
+      <c r="AE186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -34632,6 +37802,23 @@
           <t>Owen Williams</t>
         </is>
       </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -34723,6 +37910,23 @@
       <c r="AC188" t="n">
         <v>0</v>
       </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
+      <c r="AE188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -34814,6 +38018,23 @@
       <c r="AC189" t="n">
         <v>0</v>
       </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -34905,6 +38126,23 @@
       <c r="AC190" t="n">
         <v>0</v>
       </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
+      <c r="AE190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -34996,6 +38234,23 @@
       <c r="AC191" t="n">
         <v>0</v>
       </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -35003,6 +38258,23 @@
           <t>Elliott Dee</t>
         </is>
       </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -35094,6 +38366,23 @@
       <c r="AC193" t="n">
         <v>0</v>
       </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -35101,6 +38390,23 @@
           <t>Gervais Cordin</t>
         </is>
       </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -35192,6 +38498,23 @@
       <c r="AC195" t="n">
         <v>0</v>
       </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
+      <c r="AE195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -35283,6 +38606,23 @@
       <c r="AC196" t="n">
         <v>0</v>
       </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
+      <c r="AE196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -35290,6 +38630,23 @@
           <t>Julien Heriteau</t>
         </is>
       </c>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -35381,6 +38738,23 @@
       <c r="AC198" t="n">
         <v>0</v>
       </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
+      <c r="AE198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -35388,6 +38762,23 @@
           <t>Cornell Du Preez</t>
         </is>
       </c>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="AE199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -35478,6 +38869,23 @@
       </c>
       <c r="AC200" t="n">
         <v>0</v>
+      </c>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
+      <c r="AE200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -38900,7 +38900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC370"/>
+  <dimension ref="A1:AG370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -39054,6 +39054,26 @@
           <t>RC</t>
         </is>
       </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Position No</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -39165,6 +39165,11 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -39256,6 +39261,11 @@
       <c r="AC3" t="n">
         <v>0</v>
       </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -39347,6 +39357,11 @@
       <c r="AC4" t="n">
         <v>0</v>
       </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -39438,6 +39453,11 @@
       <c r="AC5" t="n">
         <v>0</v>
       </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -39529,6 +39549,11 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -39620,6 +39645,11 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -39711,6 +39741,11 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -39802,6 +39837,11 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -39893,6 +39933,11 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -39984,6 +40029,11 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -40075,6 +40125,11 @@
       <c r="AC12" t="n">
         <v>0</v>
       </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -40166,6 +40221,11 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -40257,6 +40317,11 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -40348,6 +40413,11 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -40439,6 +40509,11 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -40530,6 +40605,11 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -40621,6 +40701,11 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -40712,6 +40797,11 @@
       <c r="AC19" t="n">
         <v>0</v>
       </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -40803,6 +40893,11 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40894,6 +40989,11 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -40985,6 +41085,11 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -41076,6 +41181,11 @@
       <c r="AC23" t="n">
         <v>0</v>
       </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -41167,6 +41277,11 @@
       <c r="AC24" t="n">
         <v>0</v>
       </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -41258,6 +41373,11 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -41349,6 +41469,11 @@
       <c r="AC26" t="n">
         <v>0</v>
       </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -41440,6 +41565,11 @@
       <c r="AC27" t="n">
         <v>0</v>
       </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -41531,6 +41661,11 @@
       <c r="AC28" t="n">
         <v>0</v>
       </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -41622,6 +41757,11 @@
       <c r="AC29" t="n">
         <v>0</v>
       </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -41713,6 +41853,11 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -41804,6 +41949,11 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -41895,6 +42045,11 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -41986,6 +42141,11 @@
       <c r="AC33" t="n">
         <v>0</v>
       </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -42077,6 +42237,11 @@
       <c r="AC34" t="n">
         <v>0</v>
       </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -42168,6 +42333,11 @@
       <c r="AC35" t="n">
         <v>0</v>
       </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -42259,6 +42429,11 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -42350,6 +42525,11 @@
       <c r="AC37" t="n">
         <v>0</v>
       </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -42441,6 +42621,11 @@
       <c r="AC38" t="n">
         <v>0</v>
       </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -42532,6 +42717,11 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -42623,6 +42813,11 @@
       <c r="AC40" t="n">
         <v>0</v>
       </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -42714,6 +42909,11 @@
       <c r="AC41" t="n">
         <v>0</v>
       </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -42805,6 +43005,11 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -42896,6 +43101,11 @@
       <c r="AC43" t="n">
         <v>0</v>
       </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -42987,6 +43197,11 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -43078,6 +43293,11 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -43169,6 +43389,11 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -43260,6 +43485,11 @@
       <c r="AC47" t="n">
         <v>0</v>
       </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -43351,6 +43581,11 @@
       <c r="AC48" t="n">
         <v>0</v>
       </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -43442,6 +43677,11 @@
       <c r="AC49" t="n">
         <v>0</v>
       </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43533,6 +43773,11 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -43624,6 +43869,11 @@
       <c r="AC51" t="n">
         <v>0</v>
       </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43715,6 +43965,11 @@
       <c r="AC52" t="n">
         <v>0</v>
       </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43806,6 +44061,11 @@
       <c r="AC53" t="n">
         <v>0</v>
       </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43897,6 +44157,11 @@
       <c r="AC54" t="n">
         <v>0</v>
       </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43988,6 +44253,11 @@
       <c r="AC55" t="n">
         <v>0</v>
       </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44079,6 +44349,11 @@
       <c r="AC56" t="n">
         <v>0</v>
       </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44170,6 +44445,11 @@
       <c r="AC57" t="n">
         <v>0</v>
       </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44261,6 +44541,11 @@
       <c r="AC58" t="n">
         <v>0</v>
       </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44352,6 +44637,11 @@
       <c r="AC59" t="n">
         <v>0</v>
       </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44443,6 +44733,11 @@
       <c r="AC60" t="n">
         <v>0</v>
       </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44534,6 +44829,11 @@
       <c r="AC61" t="n">
         <v>0</v>
       </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44625,6 +44925,11 @@
       <c r="AC62" t="n">
         <v>0</v>
       </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44716,6 +45021,11 @@
       <c r="AC63" t="n">
         <v>0</v>
       </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44807,6 +45117,11 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44898,6 +45213,11 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44989,6 +45309,11 @@
       <c r="AC66" t="n">
         <v>0</v>
       </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45080,6 +45405,11 @@
       <c r="AC67" t="n">
         <v>0</v>
       </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45171,6 +45501,11 @@
       <c r="AC68" t="n">
         <v>0</v>
       </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45262,6 +45597,11 @@
       <c r="AC69" t="n">
         <v>0</v>
       </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45353,6 +45693,11 @@
       <c r="AC70" t="n">
         <v>0</v>
       </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45444,6 +45789,11 @@
       <c r="AC71" t="n">
         <v>0</v>
       </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45535,6 +45885,11 @@
       <c r="AC72" t="n">
         <v>0</v>
       </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45626,6 +45981,11 @@
       <c r="AC73" t="n">
         <v>0</v>
       </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45717,6 +46077,11 @@
       <c r="AC74" t="n">
         <v>0</v>
       </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -45808,6 +46173,11 @@
       <c r="AC75" t="n">
         <v>0</v>
       </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -45899,6 +46269,11 @@
       <c r="AC76" t="n">
         <v>0</v>
       </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -45990,6 +46365,11 @@
       <c r="AC77" t="n">
         <v>0</v>
       </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -46081,6 +46461,11 @@
       <c r="AC78" t="n">
         <v>0</v>
       </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -46172,6 +46557,11 @@
       <c r="AC79" t="n">
         <v>0</v>
       </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46263,6 +46653,11 @@
       <c r="AC80" t="n">
         <v>0</v>
       </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -46354,6 +46749,11 @@
       <c r="AC81" t="n">
         <v>0</v>
       </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -46445,6 +46845,11 @@
       <c r="AC82" t="n">
         <v>0</v>
       </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -46536,6 +46941,11 @@
       <c r="AC83" t="n">
         <v>0</v>
       </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -46627,6 +47037,11 @@
       <c r="AC84" t="n">
         <v>0</v>
       </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -46718,6 +47133,11 @@
       <c r="AC85" t="n">
         <v>0</v>
       </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -46809,6 +47229,11 @@
       <c r="AC86" t="n">
         <v>0</v>
       </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -46900,6 +47325,11 @@
       <c r="AC87" t="n">
         <v>0</v>
       </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -46991,6 +47421,11 @@
       <c r="AC88" t="n">
         <v>0</v>
       </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -47082,6 +47517,11 @@
       <c r="AC89" t="n">
         <v>0</v>
       </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -47173,6 +47613,11 @@
       <c r="AC90" t="n">
         <v>0</v>
       </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -47264,6 +47709,11 @@
       <c r="AC91" t="n">
         <v>0</v>
       </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -47355,6 +47805,11 @@
       <c r="AC92" t="n">
         <v>0</v>
       </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -47446,6 +47901,11 @@
       <c r="AC93" t="n">
         <v>0</v>
       </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -47537,6 +47997,11 @@
       <c r="AC94" t="n">
         <v>0</v>
       </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -47628,6 +48093,11 @@
       <c r="AC95" t="n">
         <v>0</v>
       </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -47719,6 +48189,11 @@
       <c r="AC96" t="n">
         <v>0</v>
       </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -47810,6 +48285,11 @@
       <c r="AC97" t="n">
         <v>0</v>
       </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -47901,6 +48381,11 @@
       <c r="AC98" t="n">
         <v>0</v>
       </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -47992,6 +48477,11 @@
       <c r="AC99" t="n">
         <v>0</v>
       </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -48083,6 +48573,11 @@
       <c r="AC100" t="n">
         <v>0</v>
       </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -48174,6 +48669,11 @@
       <c r="AC101" t="n">
         <v>0</v>
       </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -48265,6 +48765,11 @@
       <c r="AC102" t="n">
         <v>0</v>
       </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -48356,6 +48861,11 @@
       <c r="AC103" t="n">
         <v>0</v>
       </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -48447,6 +48957,11 @@
       <c r="AC104" t="n">
         <v>0</v>
       </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -48538,6 +49053,11 @@
       <c r="AC105" t="n">
         <v>0</v>
       </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -48629,6 +49149,11 @@
       <c r="AC106" t="n">
         <v>0</v>
       </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -48720,6 +49245,11 @@
       <c r="AC107" t="n">
         <v>0</v>
       </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -48811,6 +49341,11 @@
       <c r="AC108" t="n">
         <v>0</v>
       </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -48902,6 +49437,11 @@
       <c r="AC109" t="n">
         <v>0</v>
       </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -48993,6 +49533,11 @@
       <c r="AC110" t="n">
         <v>0</v>
       </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -49084,6 +49629,11 @@
       <c r="AC111" t="n">
         <v>0</v>
       </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -49175,6 +49725,11 @@
       <c r="AC112" t="n">
         <v>0</v>
       </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -49266,6 +49821,11 @@
       <c r="AC113" t="n">
         <v>0</v>
       </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -49357,6 +49917,11 @@
       <c r="AC114" t="n">
         <v>0</v>
       </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -49448,6 +50013,11 @@
       <c r="AC115" t="n">
         <v>0</v>
       </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -49539,6 +50109,11 @@
       <c r="AC116" t="n">
         <v>0</v>
       </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -49630,6 +50205,11 @@
       <c r="AC117" t="n">
         <v>0</v>
       </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -49721,6 +50301,11 @@
       <c r="AC118" t="n">
         <v>0</v>
       </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -49812,6 +50397,11 @@
       <c r="AC119" t="n">
         <v>0</v>
       </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -49903,6 +50493,11 @@
       <c r="AC120" t="n">
         <v>0</v>
       </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -49994,6 +50589,11 @@
       <c r="AC121" t="n">
         <v>0</v>
       </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -50085,6 +50685,11 @@
       <c r="AC122" t="n">
         <v>0</v>
       </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -50176,6 +50781,11 @@
       <c r="AC123" t="n">
         <v>0</v>
       </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -50267,6 +50877,11 @@
       <c r="AC124" t="n">
         <v>0</v>
       </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -50358,6 +50973,11 @@
       <c r="AC125" t="n">
         <v>0</v>
       </c>
+      <c r="AD125" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -50449,6 +51069,11 @@
       <c r="AC126" t="n">
         <v>0</v>
       </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -50540,6 +51165,11 @@
       <c r="AC127" t="n">
         <v>0</v>
       </c>
+      <c r="AD127" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -50631,6 +51261,11 @@
       <c r="AC128" t="n">
         <v>0</v>
       </c>
+      <c r="AD128" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -50722,6 +51357,11 @@
       <c r="AC129" t="n">
         <v>0</v>
       </c>
+      <c r="AD129" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -50813,6 +51453,11 @@
       <c r="AC130" t="n">
         <v>0</v>
       </c>
+      <c r="AD130" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -50904,6 +51549,11 @@
       <c r="AC131" t="n">
         <v>0</v>
       </c>
+      <c r="AD131" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -50995,6 +51645,11 @@
       <c r="AC132" t="n">
         <v>0</v>
       </c>
+      <c r="AD132" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -51086,6 +51741,11 @@
       <c r="AC133" t="n">
         <v>0</v>
       </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -51177,6 +51837,11 @@
       <c r="AC134" t="n">
         <v>0</v>
       </c>
+      <c r="AD134" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -51268,6 +51933,11 @@
       <c r="AC135" t="n">
         <v>0</v>
       </c>
+      <c r="AD135" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -51359,6 +52029,11 @@
       <c r="AC136" t="n">
         <v>0</v>
       </c>
+      <c r="AD136" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -51450,6 +52125,11 @@
       <c r="AC137" t="n">
         <v>0</v>
       </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -51541,6 +52221,11 @@
       <c r="AC138" t="n">
         <v>0</v>
       </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -51632,6 +52317,11 @@
       <c r="AC139" t="n">
         <v>0</v>
       </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -51723,6 +52413,11 @@
       <c r="AC140" t="n">
         <v>0</v>
       </c>
+      <c r="AD140" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -51814,6 +52509,11 @@
       <c r="AC141" t="n">
         <v>0</v>
       </c>
+      <c r="AD141" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -51905,6 +52605,11 @@
       <c r="AC142" t="n">
         <v>0</v>
       </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -51996,6 +52701,11 @@
       <c r="AC143" t="n">
         <v>0</v>
       </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -52087,6 +52797,11 @@
       <c r="AC144" t="n">
         <v>0</v>
       </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -52178,6 +52893,11 @@
       <c r="AC145" t="n">
         <v>0</v>
       </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -52269,6 +52989,11 @@
       <c r="AC146" t="n">
         <v>0</v>
       </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -52360,6 +53085,11 @@
       <c r="AC147" t="n">
         <v>0</v>
       </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -52451,6 +53181,11 @@
       <c r="AC148" t="n">
         <v>0</v>
       </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -52542,6 +53277,11 @@
       <c r="AC149" t="n">
         <v>0</v>
       </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -52633,6 +53373,11 @@
       <c r="AC150" t="n">
         <v>0</v>
       </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -52724,6 +53469,11 @@
       <c r="AC151" t="n">
         <v>0</v>
       </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -52815,6 +53565,11 @@
       <c r="AC152" t="n">
         <v>0</v>
       </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -52906,6 +53661,11 @@
       <c r="AC153" t="n">
         <v>0</v>
       </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -52997,6 +53757,11 @@
       <c r="AC154" t="n">
         <v>0</v>
       </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -53088,6 +53853,11 @@
       <c r="AC155" t="n">
         <v>0</v>
       </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -53179,6 +53949,11 @@
       <c r="AC156" t="n">
         <v>0</v>
       </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -53270,6 +54045,11 @@
       <c r="AC157" t="n">
         <v>0</v>
       </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -53361,6 +54141,11 @@
       <c r="AC158" t="n">
         <v>0</v>
       </c>
+      <c r="AD158" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -53452,6 +54237,11 @@
       <c r="AC159" t="n">
         <v>0</v>
       </c>
+      <c r="AD159" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -53543,6 +54333,11 @@
       <c r="AC160" t="n">
         <v>0</v>
       </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -53634,6 +54429,11 @@
       <c r="AC161" t="n">
         <v>0</v>
       </c>
+      <c r="AD161" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -53725,6 +54525,11 @@
       <c r="AC162" t="n">
         <v>0</v>
       </c>
+      <c r="AD162" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -53816,6 +54621,11 @@
       <c r="AC163" t="n">
         <v>0</v>
       </c>
+      <c r="AD163" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -53907,6 +54717,11 @@
       <c r="AC164" t="n">
         <v>0</v>
       </c>
+      <c r="AD164" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -53998,6 +54813,11 @@
       <c r="AC165" t="n">
         <v>0</v>
       </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -54089,6 +54909,11 @@
       <c r="AC166" t="n">
         <v>0</v>
       </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -54180,6 +55005,11 @@
       <c r="AC167" t="n">
         <v>0</v>
       </c>
+      <c r="AD167" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -54271,6 +55101,11 @@
       <c r="AC168" t="n">
         <v>0</v>
       </c>
+      <c r="AD168" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -54362,6 +55197,11 @@
       <c r="AC169" t="n">
         <v>0</v>
       </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -54453,6 +55293,11 @@
       <c r="AC170" t="n">
         <v>0</v>
       </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -54544,6 +55389,11 @@
       <c r="AC171" t="n">
         <v>0</v>
       </c>
+      <c r="AD171" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -54635,6 +55485,11 @@
       <c r="AC172" t="n">
         <v>0</v>
       </c>
+      <c r="AD172" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -54726,6 +55581,11 @@
       <c r="AC173" t="n">
         <v>0</v>
       </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -54817,6 +55677,11 @@
       <c r="AC174" t="n">
         <v>0</v>
       </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -54908,6 +55773,11 @@
       <c r="AC175" t="n">
         <v>0</v>
       </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -54999,6 +55869,11 @@
       <c r="AC176" t="n">
         <v>0</v>
       </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -55090,6 +55965,11 @@
       <c r="AC177" t="n">
         <v>0</v>
       </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -55181,6 +56061,11 @@
       <c r="AC178" t="n">
         <v>0</v>
       </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -55272,6 +56157,11 @@
       <c r="AC179" t="n">
         <v>0</v>
       </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -55363,6 +56253,11 @@
       <c r="AC180" t="n">
         <v>0</v>
       </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -55454,6 +56349,11 @@
       <c r="AC181" t="n">
         <v>0</v>
       </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -55545,6 +56445,11 @@
       <c r="AC182" t="n">
         <v>0</v>
       </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -55636,6 +56541,11 @@
       <c r="AC183" t="n">
         <v>0</v>
       </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -55727,6 +56637,11 @@
       <c r="AC184" t="n">
         <v>0</v>
       </c>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -55818,6 +56733,11 @@
       <c r="AC185" t="n">
         <v>0</v>
       </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -55909,6 +56829,11 @@
       <c r="AC186" t="n">
         <v>0</v>
       </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -56000,6 +56925,11 @@
       <c r="AC187" t="n">
         <v>0</v>
       </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -56091,6 +57021,11 @@
       <c r="AC188" t="n">
         <v>0</v>
       </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -56182,6 +57117,11 @@
       <c r="AC189" t="n">
         <v>0</v>
       </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -56273,6 +57213,11 @@
       <c r="AC190" t="n">
         <v>0</v>
       </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -56364,6 +57309,11 @@
       <c r="AC191" t="n">
         <v>0</v>
       </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -56455,6 +57405,11 @@
       <c r="AC192" t="n">
         <v>0</v>
       </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -56546,6 +57501,11 @@
       <c r="AC193" t="n">
         <v>0</v>
       </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -56637,6 +57597,11 @@
       <c r="AC194" t="n">
         <v>0</v>
       </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -56728,6 +57693,11 @@
       <c r="AC195" t="n">
         <v>0</v>
       </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -56819,6 +57789,11 @@
       <c r="AC196" t="n">
         <v>0</v>
       </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -56910,6 +57885,11 @@
       <c r="AC197" t="n">
         <v>0</v>
       </c>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -57001,6 +57981,11 @@
       <c r="AC198" t="n">
         <v>0</v>
       </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -57092,6 +58077,11 @@
       <c r="AC199" t="n">
         <v>0</v>
       </c>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -57183,6 +58173,11 @@
       <c r="AC200" t="n">
         <v>0</v>
       </c>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -57274,6 +58269,11 @@
       <c r="AC201" t="n">
         <v>0</v>
       </c>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -57365,6 +58365,11 @@
       <c r="AC202" t="n">
         <v>0</v>
       </c>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -57456,6 +58461,11 @@
       <c r="AC203" t="n">
         <v>0</v>
       </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -57547,6 +58557,11 @@
       <c r="AC204" t="n">
         <v>0</v>
       </c>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -57638,6 +58653,11 @@
       <c r="AC205" t="n">
         <v>0</v>
       </c>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -57729,6 +58749,11 @@
       <c r="AC206" t="n">
         <v>0</v>
       </c>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -57820,6 +58845,11 @@
       <c r="AC207" t="n">
         <v>0</v>
       </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -57911,6 +58941,11 @@
       <c r="AC208" t="n">
         <v>0</v>
       </c>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -58002,6 +59037,11 @@
       <c r="AC209" t="n">
         <v>0</v>
       </c>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -58093,6 +59133,11 @@
       <c r="AC210" t="n">
         <v>0</v>
       </c>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -58184,6 +59229,11 @@
       <c r="AC211" t="n">
         <v>0</v>
       </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -58275,6 +59325,11 @@
       <c r="AC212" t="n">
         <v>0</v>
       </c>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -58366,6 +59421,11 @@
       <c r="AC213" t="n">
         <v>0</v>
       </c>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -58457,6 +59517,11 @@
       <c r="AC214" t="n">
         <v>0</v>
       </c>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -58548,6 +59613,11 @@
       <c r="AC215" t="n">
         <v>0</v>
       </c>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -58639,6 +59709,11 @@
       <c r="AC216" t="n">
         <v>0</v>
       </c>
+      <c r="AD216" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -58730,6 +59805,11 @@
       <c r="AC217" t="n">
         <v>0</v>
       </c>
+      <c r="AD217" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -58821,6 +59901,11 @@
       <c r="AC218" t="n">
         <v>0</v>
       </c>
+      <c r="AD218" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -58912,6 +59997,11 @@
       <c r="AC219" t="n">
         <v>0</v>
       </c>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -59003,6 +60093,11 @@
       <c r="AC220" t="n">
         <v>1</v>
       </c>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -59094,6 +60189,11 @@
       <c r="AC221" t="n">
         <v>0</v>
       </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -59185,6 +60285,11 @@
       <c r="AC222" t="n">
         <v>0</v>
       </c>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -59276,6 +60381,11 @@
       <c r="AC223" t="n">
         <v>0</v>
       </c>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -59367,6 +60477,11 @@
       <c r="AC224" t="n">
         <v>0</v>
       </c>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -59458,6 +60573,11 @@
       <c r="AC225" t="n">
         <v>0</v>
       </c>
+      <c r="AD225" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -59549,6 +60669,11 @@
       <c r="AC226" t="n">
         <v>0</v>
       </c>
+      <c r="AD226" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -59640,6 +60765,11 @@
       <c r="AC227" t="n">
         <v>0</v>
       </c>
+      <c r="AD227" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -59731,6 +60861,11 @@
       <c r="AC228" t="n">
         <v>0</v>
       </c>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -59822,6 +60957,11 @@
       <c r="AC229" t="n">
         <v>0</v>
       </c>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -59913,6 +61053,11 @@
       <c r="AC230" t="n">
         <v>0</v>
       </c>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -60004,6 +61149,11 @@
       <c r="AC231" t="n">
         <v>0</v>
       </c>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -60095,6 +61245,11 @@
       <c r="AC232" t="n">
         <v>0</v>
       </c>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -60186,6 +61341,11 @@
       <c r="AC233" t="n">
         <v>0</v>
       </c>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -60277,6 +61437,11 @@
       <c r="AC234" t="n">
         <v>0</v>
       </c>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -60368,6 +61533,11 @@
       <c r="AC235" t="n">
         <v>0</v>
       </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -60459,6 +61629,11 @@
       <c r="AC236" t="n">
         <v>0</v>
       </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -60550,6 +61725,11 @@
       <c r="AC237" t="n">
         <v>0</v>
       </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -60641,6 +61821,11 @@
       <c r="AC238" t="n">
         <v>0</v>
       </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -60732,6 +61917,11 @@
       <c r="AC239" t="n">
         <v>0</v>
       </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -60823,6 +62013,11 @@
       <c r="AC240" t="n">
         <v>0</v>
       </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -60914,6 +62109,11 @@
       <c r="AC241" t="n">
         <v>0</v>
       </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -61005,6 +62205,11 @@
       <c r="AC242" t="n">
         <v>0</v>
       </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -61096,6 +62301,11 @@
       <c r="AC243" t="n">
         <v>0</v>
       </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -61187,6 +62397,11 @@
       <c r="AC244" t="n">
         <v>0</v>
       </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -61278,6 +62493,11 @@
       <c r="AC245" t="n">
         <v>0</v>
       </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -61369,6 +62589,11 @@
       <c r="AC246" t="n">
         <v>0</v>
       </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -61460,6 +62685,11 @@
       <c r="AC247" t="n">
         <v>0</v>
       </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -61551,6 +62781,11 @@
       <c r="AC248" t="n">
         <v>0</v>
       </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -61642,6 +62877,11 @@
       <c r="AC249" t="n">
         <v>0</v>
       </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -61733,6 +62973,11 @@
       <c r="AC250" t="n">
         <v>0</v>
       </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -61824,6 +63069,11 @@
       <c r="AC251" t="n">
         <v>0</v>
       </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -61915,6 +63165,11 @@
       <c r="AC252" t="n">
         <v>0</v>
       </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -62006,6 +63261,11 @@
       <c r="AC253" t="n">
         <v>0</v>
       </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -62097,6 +63357,11 @@
       <c r="AC254" t="n">
         <v>0</v>
       </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -62188,6 +63453,11 @@
       <c r="AC255" t="n">
         <v>0</v>
       </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -62279,6 +63549,11 @@
       <c r="AC256" t="n">
         <v>0</v>
       </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -62370,6 +63645,11 @@
       <c r="AC257" t="n">
         <v>0</v>
       </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -62461,6 +63741,11 @@
       <c r="AC258" t="n">
         <v>0</v>
       </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -62552,6 +63837,11 @@
       <c r="AC259" t="n">
         <v>0</v>
       </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -62643,6 +63933,11 @@
       <c r="AC260" t="n">
         <v>0</v>
       </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -62734,6 +64029,11 @@
       <c r="AC261" t="n">
         <v>0</v>
       </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -62825,6 +64125,11 @@
       <c r="AC262" t="n">
         <v>0</v>
       </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -62916,6 +64221,11 @@
       <c r="AC263" t="n">
         <v>0</v>
       </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -63007,6 +64317,11 @@
       <c r="AC264" t="n">
         <v>0</v>
       </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -63098,6 +64413,11 @@
       <c r="AC265" t="n">
         <v>0</v>
       </c>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -63189,6 +64509,11 @@
       <c r="AC266" t="n">
         <v>0</v>
       </c>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -63280,6 +64605,11 @@
       <c r="AC267" t="n">
         <v>0</v>
       </c>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -63371,6 +64701,11 @@
       <c r="AC268" t="n">
         <v>0</v>
       </c>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -63462,6 +64797,11 @@
       <c r="AC269" t="n">
         <v>0</v>
       </c>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -63553,6 +64893,11 @@
       <c r="AC270" t="n">
         <v>0</v>
       </c>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -63644,6 +64989,11 @@
       <c r="AC271" t="n">
         <v>0</v>
       </c>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -63735,6 +65085,11 @@
       <c r="AC272" t="n">
         <v>0</v>
       </c>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -63826,6 +65181,11 @@
       <c r="AC273" t="n">
         <v>0</v>
       </c>
+      <c r="AD273" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -63917,6 +65277,11 @@
       <c r="AC274" t="n">
         <v>0</v>
       </c>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -64008,6 +65373,11 @@
       <c r="AC275" t="n">
         <v>0</v>
       </c>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -64099,6 +65469,11 @@
       <c r="AC276" t="n">
         <v>0</v>
       </c>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -64190,6 +65565,11 @@
       <c r="AC277" t="n">
         <v>0</v>
       </c>
+      <c r="AD277" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -64281,6 +65661,11 @@
       <c r="AC278" t="n">
         <v>0</v>
       </c>
+      <c r="AD278" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -64372,6 +65757,11 @@
       <c r="AC279" t="n">
         <v>0</v>
       </c>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -64463,6 +65853,11 @@
       <c r="AC280" t="n">
         <v>0</v>
       </c>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -64554,6 +65949,11 @@
       <c r="AC281" t="n">
         <v>0</v>
       </c>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -64645,6 +66045,11 @@
       <c r="AC282" t="n">
         <v>0</v>
       </c>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -64736,6 +66141,11 @@
       <c r="AC283" t="n">
         <v>0</v>
       </c>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -64827,6 +66237,11 @@
       <c r="AC284" t="n">
         <v>0</v>
       </c>
+      <c r="AD284" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -64918,6 +66333,11 @@
       <c r="AC285" t="n">
         <v>0</v>
       </c>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -65009,6 +66429,11 @@
       <c r="AC286" t="n">
         <v>0</v>
       </c>
+      <c r="AD286" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -65100,6 +66525,11 @@
       <c r="AC287" t="n">
         <v>0</v>
       </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -65191,6 +66621,11 @@
       <c r="AC288" t="n">
         <v>0</v>
       </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -65282,6 +66717,11 @@
       <c r="AC289" t="n">
         <v>0</v>
       </c>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -65373,6 +66813,11 @@
       <c r="AC290" t="n">
         <v>0</v>
       </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -65464,6 +66909,11 @@
       <c r="AC291" t="n">
         <v>0</v>
       </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -65555,6 +67005,11 @@
       <c r="AC292" t="n">
         <v>0</v>
       </c>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -65646,6 +67101,11 @@
       <c r="AC293" t="n">
         <v>0</v>
       </c>
+      <c r="AD293" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -65737,6 +67197,11 @@
       <c r="AC294" t="n">
         <v>0</v>
       </c>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -65828,6 +67293,11 @@
       <c r="AC295" t="n">
         <v>0</v>
       </c>
+      <c r="AD295" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -65919,6 +67389,11 @@
       <c r="AC296" t="n">
         <v>0</v>
       </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -66010,6 +67485,11 @@
       <c r="AC297" t="n">
         <v>0</v>
       </c>
+      <c r="AD297" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -66101,6 +67581,11 @@
       <c r="AC298" t="n">
         <v>0</v>
       </c>
+      <c r="AD298" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -66192,6 +67677,11 @@
       <c r="AC299" t="n">
         <v>0</v>
       </c>
+      <c r="AD299" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -66283,6 +67773,11 @@
       <c r="AC300" t="n">
         <v>0</v>
       </c>
+      <c r="AD300" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -66374,6 +67869,11 @@
       <c r="AC301" t="n">
         <v>0</v>
       </c>
+      <c r="AD301" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -66465,6 +67965,11 @@
       <c r="AC302" t="n">
         <v>0</v>
       </c>
+      <c r="AD302" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -66556,6 +68061,11 @@
       <c r="AC303" t="n">
         <v>0</v>
       </c>
+      <c r="AD303" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -66647,6 +68157,11 @@
       <c r="AC304" t="n">
         <v>0</v>
       </c>
+      <c r="AD304" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -66738,6 +68253,11 @@
       <c r="AC305" t="n">
         <v>0</v>
       </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -66829,6 +68349,11 @@
       <c r="AC306" t="n">
         <v>0</v>
       </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>Fullback</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -66920,6 +68445,11 @@
       <c r="AC307" t="n">
         <v>0</v>
       </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -67011,6 +68541,11 @@
       <c r="AC308" t="n">
         <v>0</v>
       </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -67102,6 +68637,11 @@
       <c r="AC309" t="n">
         <v>0</v>
       </c>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -67193,6 +68733,11 @@
       <c r="AC310" t="n">
         <v>0</v>
       </c>
+      <c r="AD310" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -67284,6 +68829,11 @@
       <c r="AC311" t="n">
         <v>0</v>
       </c>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -67375,6 +68925,11 @@
       <c r="AC312" t="n">
         <v>0</v>
       </c>
+      <c r="AD312" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -67466,6 +69021,11 @@
       <c r="AC313" t="n">
         <v>0</v>
       </c>
+      <c r="AD313" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -67557,6 +69117,11 @@
       <c r="AC314" t="n">
         <v>0</v>
       </c>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -67648,6 +69213,11 @@
       <c r="AC315" t="n">
         <v>0</v>
       </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -67739,6 +69309,11 @@
       <c r="AC316" t="n">
         <v>0</v>
       </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -67830,6 +69405,11 @@
       <c r="AC317" t="n">
         <v>0</v>
       </c>
+      <c r="AD317" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -67921,6 +69501,11 @@
       <c r="AC318" t="n">
         <v>0</v>
       </c>
+      <c r="AD318" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -68012,6 +69597,11 @@
       <c r="AC319" t="n">
         <v>0</v>
       </c>
+      <c r="AD319" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -68103,6 +69693,11 @@
       <c r="AC320" t="n">
         <v>0</v>
       </c>
+      <c r="AD320" t="inlineStr">
+        <is>
+          <t>Scrum Half</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -68194,6 +69789,11 @@
       <c r="AC321" t="n">
         <v>0</v>
       </c>
+      <c r="AD321" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -68285,6 +69885,11 @@
       <c r="AC322" t="n">
         <v>0</v>
       </c>
+      <c r="AD322" t="inlineStr">
+        <is>
+          <t>Right Wing</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -68376,6 +69981,11 @@
       <c r="AC323" t="n">
         <v>1</v>
       </c>
+      <c r="AD323" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -68467,6 +70077,11 @@
       <c r="AC324" t="n">
         <v>0</v>
       </c>
+      <c r="AD324" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -68558,6 +70173,11 @@
       <c r="AC325" t="n">
         <v>0</v>
       </c>
+      <c r="AD325" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -68649,6 +70269,11 @@
       <c r="AC326" t="n">
         <v>0</v>
       </c>
+      <c r="AD326" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -68740,6 +70365,11 @@
       <c r="AC327" t="n">
         <v>0</v>
       </c>
+      <c r="AD327" t="inlineStr">
+        <is>
+          <t>Left Wing</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -68831,6 +70461,11 @@
       <c r="AC328" t="n">
         <v>0</v>
       </c>
+      <c r="AD328" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -68922,6 +70557,11 @@
       <c r="AC329" t="n">
         <v>1</v>
       </c>
+      <c r="AD329" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -69013,6 +70653,11 @@
       <c r="AC330" t="n">
         <v>0</v>
       </c>
+      <c r="AD330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -69104,6 +70749,11 @@
       <c r="AC331" t="n">
         <v>0</v>
       </c>
+      <c r="AD331" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -69195,6 +70845,11 @@
       <c r="AC332" t="n">
         <v>0</v>
       </c>
+      <c r="AD332" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -69286,6 +70941,11 @@
       <c r="AC333" t="n">
         <v>0</v>
       </c>
+      <c r="AD333" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -69377,6 +71037,11 @@
       <c r="AC334" t="n">
         <v>0</v>
       </c>
+      <c r="AD334" t="inlineStr">
+        <is>
+          <t>Blindside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -69468,6 +71133,11 @@
       <c r="AC335" t="n">
         <v>0</v>
       </c>
+      <c r="AD335" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -69559,6 +71229,11 @@
       <c r="AC336" t="n">
         <v>0</v>
       </c>
+      <c r="AD336" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -69650,6 +71325,11 @@
       <c r="AC337" t="n">
         <v>0</v>
       </c>
+      <c r="AD337" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -69741,6 +71421,11 @@
       <c r="AC338" t="n">
         <v>0</v>
       </c>
+      <c r="AD338" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -69832,6 +71517,11 @@
       <c r="AC339" t="n">
         <v>0</v>
       </c>
+      <c r="AD339" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -69923,6 +71613,11 @@
       <c r="AC340" t="n">
         <v>1</v>
       </c>
+      <c r="AD340" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -70014,6 +71709,11 @@
       <c r="AC341" t="n">
         <v>0</v>
       </c>
+      <c r="AD341" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -70105,6 +71805,11 @@
       <c r="AC342" t="n">
         <v>0</v>
       </c>
+      <c r="AD342" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -70196,6 +71901,11 @@
       <c r="AC343" t="n">
         <v>0</v>
       </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -70287,6 +71997,11 @@
       <c r="AC344" t="n">
         <v>0</v>
       </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -70378,6 +72093,11 @@
       <c r="AC345" t="n">
         <v>0</v>
       </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -70469,6 +72189,11 @@
       <c r="AC346" t="n">
         <v>0</v>
       </c>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -70560,6 +72285,11 @@
       <c r="AC347" t="n">
         <v>1</v>
       </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -70651,6 +72381,11 @@
       <c r="AC348" t="n">
         <v>0</v>
       </c>
+      <c r="AD348" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -70742,6 +72477,11 @@
       <c r="AC349" t="n">
         <v>0</v>
       </c>
+      <c r="AD349" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -70833,6 +72573,11 @@
       <c r="AC350" t="n">
         <v>0</v>
       </c>
+      <c r="AD350" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -70924,6 +72669,11 @@
       <c r="AC351" t="n">
         <v>0</v>
       </c>
+      <c r="AD351" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -71015,6 +72765,11 @@
       <c r="AC352" t="n">
         <v>1</v>
       </c>
+      <c r="AD352" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -71106,6 +72861,11 @@
       <c r="AC353" t="n">
         <v>0</v>
       </c>
+      <c r="AD353" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -71197,6 +72957,11 @@
       <c r="AC354" t="n">
         <v>0</v>
       </c>
+      <c r="AD354" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -71288,6 +73053,11 @@
       <c r="AC355" t="n">
         <v>0</v>
       </c>
+      <c r="AD355" t="inlineStr">
+        <is>
+          <t>Outside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -71379,6 +73149,11 @@
       <c r="AC356" t="n">
         <v>0</v>
       </c>
+      <c r="AD356" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -71470,6 +73245,11 @@
       <c r="AC357" t="n">
         <v>0</v>
       </c>
+      <c r="AD357" t="inlineStr">
+        <is>
+          <t>Inside Centre</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -71561,6 +73341,11 @@
       <c r="AC358" t="n">
         <v>0</v>
       </c>
+      <c r="AD358" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -71652,6 +73437,11 @@
       <c r="AC359" t="n">
         <v>0</v>
       </c>
+      <c r="AD359" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -71743,6 +73533,11 @@
       <c r="AC360" t="n">
         <v>0</v>
       </c>
+      <c r="AD360" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -71834,6 +73629,11 @@
       <c r="AC361" t="n">
         <v>0</v>
       </c>
+      <c r="AD361" t="inlineStr">
+        <is>
+          <t>Lock 4</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -71925,6 +73725,11 @@
       <c r="AC362" t="n">
         <v>0</v>
       </c>
+      <c r="AD362" t="inlineStr">
+        <is>
+          <t>Lock 5</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -72016,6 +73821,11 @@
       <c r="AC363" t="n">
         <v>0</v>
       </c>
+      <c r="AD363" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -72107,6 +73917,11 @@
       <c r="AC364" t="n">
         <v>0</v>
       </c>
+      <c r="AD364" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -72198,6 +74013,11 @@
       <c r="AC365" t="n">
         <v>0</v>
       </c>
+      <c r="AD365" t="inlineStr">
+        <is>
+          <t>Openside Flanker</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -72289,6 +74109,11 @@
       <c r="AC366" t="n">
         <v>0</v>
       </c>
+      <c r="AD366" t="inlineStr">
+        <is>
+          <t>Fly Half</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -72380,6 +74205,11 @@
       <c r="AC367" t="n">
         <v>0</v>
       </c>
+      <c r="AD367" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -72471,6 +74301,11 @@
       <c r="AC368" t="n">
         <v>0</v>
       </c>
+      <c r="AD368" t="inlineStr">
+        <is>
+          <t>Tight Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -72562,6 +74397,11 @@
       <c r="AC369" t="n">
         <v>0</v>
       </c>
+      <c r="AD369" t="inlineStr">
+        <is>
+          <t>Loose Head Prop</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -72652,6 +74492,11 @@
       </c>
       <c r="AC370" t="n">
         <v>0</v>
+      </c>
+      <c r="AD370" t="inlineStr">
+        <is>
+          <t>Hooker</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -39170,6 +39170,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -39266,6 +39275,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -39362,6 +39380,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -39458,6 +39485,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -39554,6 +39590,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -39650,6 +39695,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -39746,6 +39800,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -39842,6 +39905,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -39938,6 +40010,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -40034,6 +40115,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -40130,6 +40220,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -40226,6 +40325,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -40322,6 +40430,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -40418,6 +40535,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -40514,6 +40640,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -40610,6 +40745,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -40706,6 +40850,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -40802,6 +40955,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -40898,6 +41060,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40994,6 +41165,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -41090,6 +41270,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -41186,6 +41375,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -41282,6 +41480,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -41378,6 +41585,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -41474,6 +41690,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -41570,6 +41795,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -41666,6 +41900,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -41762,6 +42005,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -41858,6 +42110,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -41954,6 +42215,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -42050,6 +42320,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -42146,6 +42425,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -42242,6 +42530,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -42338,6 +42635,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -42434,6 +42740,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -42530,6 +42845,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -42626,6 +42950,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -42722,6 +43055,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -42818,6 +43160,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -42914,6 +43265,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -43010,6 +43370,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -43106,6 +43475,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -43202,6 +43580,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -43298,6 +43685,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -43394,6 +43790,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -43490,6 +43895,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -43586,6 +44000,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -43682,6 +44105,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43778,6 +44210,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -43874,6 +44315,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43970,6 +44420,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44066,6 +44525,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44162,6 +44630,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44258,6 +44735,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44354,6 +44840,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44450,6 +44945,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44546,6 +45050,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44642,6 +45155,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44738,6 +45260,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44834,6 +45365,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44930,6 +45470,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45026,6 +45575,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45122,6 +45680,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45218,6 +45785,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45314,6 +45890,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45410,6 +45995,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45506,6 +46100,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45602,6 +46205,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45698,6 +46310,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45794,6 +46415,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45890,6 +46520,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45986,6 +46625,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46082,6 +46730,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46178,6 +46835,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46274,6 +46940,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -46370,6 +47045,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -46466,6 +47150,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -46562,6 +47255,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46658,6 +47360,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -46754,6 +47465,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -46850,6 +47570,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -46946,6 +47675,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -47042,6 +47780,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -47138,6 +47885,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -47234,6 +47990,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -47330,6 +48095,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -47426,6 +48200,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -47522,6 +48305,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -47618,6 +48410,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -47714,6 +48515,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -47810,6 +48620,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -47906,6 +48725,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -48002,6 +48830,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -48098,6 +48935,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -48194,6 +49040,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -48290,6 +49145,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -48386,6 +49250,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -48482,6 +49355,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -48578,6 +49460,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -48674,6 +49565,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -48770,6 +49670,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -48866,6 +49775,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -48962,6 +49880,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -49058,6 +49985,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -49154,6 +50090,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE106" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -49250,6 +50195,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -49346,6 +50300,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -49442,6 +50405,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -49538,6 +50510,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -49634,6 +50615,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE111" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -49730,6 +50720,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -49826,6 +50825,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -49922,6 +50930,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -50018,6 +51035,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -50114,6 +51140,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -50210,6 +51245,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -50306,6 +51350,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -50402,6 +51455,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -50498,6 +51560,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -50594,6 +51665,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -50690,6 +51770,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -50786,6 +51875,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE123" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -50882,6 +51980,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -50978,6 +52085,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -51074,6 +52190,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -51170,6 +52295,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -51266,6 +52400,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -51362,6 +52505,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -51458,6 +52610,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -51554,6 +52715,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -51650,6 +52820,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -51746,6 +52925,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -51842,6 +53030,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -51938,6 +53135,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -52034,6 +53240,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -52130,6 +53345,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -52226,6 +53450,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE138" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -52322,6 +53555,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -52418,6 +53660,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE140" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -52514,6 +53765,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -52610,6 +53870,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -52706,6 +53975,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -52802,6 +54080,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE144" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -52898,6 +54185,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -52994,6 +54290,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -53090,6 +54395,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -53186,6 +54500,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -53282,6 +54605,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -53378,6 +54710,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -53474,6 +54815,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -53570,6 +54920,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -53666,6 +55025,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -53762,6 +55130,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -53858,6 +55235,15 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -53954,6 +55340,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -54050,6 +55445,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -54146,6 +55550,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -54242,6 +55655,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -54338,6 +55760,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -54434,6 +55865,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -54530,6 +55970,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -54626,6 +56075,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -54722,6 +56180,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -54818,6 +56285,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE165" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -54914,6 +56390,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -55010,6 +56495,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -55106,6 +56600,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -55202,6 +56705,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -55298,6 +56810,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -55394,6 +56915,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -55490,6 +57020,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -55586,6 +57125,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -55682,6 +57230,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -55778,6 +57335,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -55874,6 +57440,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -55970,6 +57545,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -56066,6 +57650,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -56162,6 +57755,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -56258,6 +57860,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -56354,6 +57965,15 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -56450,6 +58070,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -56546,6 +58175,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE183" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -56642,6 +58280,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -56738,6 +58385,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -56834,6 +58490,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE186" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -56930,6 +58595,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE187" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -57026,6 +58700,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -57122,6 +58805,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE189" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -57218,6 +58910,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -57314,6 +59015,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -57410,6 +59120,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -57506,6 +59225,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -57602,6 +59330,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -57698,6 +59435,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -57794,6 +59540,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -57890,6 +59645,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -57986,6 +59750,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -58082,6 +59855,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -58178,6 +59960,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -58274,6 +60065,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -58370,6 +60170,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -58466,6 +60275,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -58562,6 +60380,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -58658,6 +60485,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -58754,6 +60590,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -58850,6 +60695,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -58946,6 +60800,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -59042,6 +60905,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -59138,6 +61010,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -59234,6 +61115,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -59330,6 +61220,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -59426,6 +61325,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -59522,6 +61430,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE214" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -59618,6 +61535,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -59714,6 +61640,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -59810,6 +61745,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -59906,6 +61850,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -60002,6 +61955,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -60098,6 +62060,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE220" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -60194,6 +62165,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -60290,6 +62270,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -60386,6 +62375,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -60482,6 +62480,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -60578,6 +62585,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -60674,6 +62690,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -60770,6 +62795,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -60866,6 +62900,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -60962,6 +63005,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -61058,6 +63110,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -61154,6 +63215,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -61250,6 +63320,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -61346,6 +63425,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -61442,6 +63530,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE234" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -61538,6 +63635,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE235" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -61634,6 +63740,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -61730,6 +63845,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -61826,6 +63950,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE238" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -61922,6 +64055,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -62018,6 +64160,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE240" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -62114,6 +64265,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE241" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -62210,6 +64370,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -62306,6 +64475,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -62402,6 +64580,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -62498,6 +64685,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -62594,6 +64790,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -62690,6 +64895,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -62786,6 +65000,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -62882,6 +65105,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -62978,6 +65210,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -63074,6 +65315,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -63170,6 +65420,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -63266,6 +65525,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -63362,6 +65630,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -63458,6 +65735,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE255" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -63554,6 +65840,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -63650,6 +65945,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE257" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -63746,6 +66050,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -63842,6 +66155,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE259" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -63938,6 +66260,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -64034,6 +66365,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -64130,6 +66470,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE262" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -64226,6 +66575,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -64322,6 +66680,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -64418,6 +66785,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -64514,6 +66890,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE266" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -64610,6 +66995,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -64706,6 +67100,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE268" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -64802,6 +67205,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -64898,6 +67310,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE270" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -64994,6 +67415,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE271" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -65090,6 +67520,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -65186,6 +67625,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -65282,6 +67730,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE274" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -65378,6 +67835,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -65474,6 +67940,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE276" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -65570,6 +68045,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -65666,6 +68150,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE278" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -65762,6 +68255,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -65858,6 +68360,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE280" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -65954,6 +68465,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE281" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -66050,6 +68570,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE282" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -66146,6 +68675,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -66242,6 +68780,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE284" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -66338,6 +68885,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE285" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -66434,6 +68990,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -66530,6 +69095,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE287" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -66626,6 +69200,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -66722,6 +69305,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE289" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -66818,6 +69410,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE290" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -66914,6 +69515,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -67010,6 +69620,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE292" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -67106,6 +69725,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE293" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -67202,6 +69830,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -67298,6 +69935,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE295" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -67394,6 +70040,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE296" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -67490,6 +70145,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -67586,6 +70250,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE298" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -67682,6 +70355,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -67778,6 +70460,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE300" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -67874,6 +70565,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE301" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -67970,6 +70670,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE302" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -68066,6 +70775,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -68162,6 +70880,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -68258,6 +70985,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE305" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -68354,6 +71090,15 @@
           <t>Fullback</t>
         </is>
       </c>
+      <c r="AE306" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -68450,6 +71195,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE307" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -68546,6 +71300,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE308" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -68642,6 +71405,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -68738,6 +71510,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE310" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -68834,6 +71615,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -68930,6 +71720,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -69026,6 +71825,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE313" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -69122,6 +71930,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE314" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -69218,6 +72035,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -69314,6 +72140,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE316" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -69410,6 +72245,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE317" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -69506,6 +72350,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE318" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -69602,6 +72455,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE319" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -69698,6 +72560,15 @@
           <t>Scrum Half</t>
         </is>
       </c>
+      <c r="AE320" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -69794,6 +72665,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE321" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -69890,6 +72770,15 @@
           <t>Right Wing</t>
         </is>
       </c>
+      <c r="AE322" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -69986,6 +72875,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE323" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -70082,6 +72980,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE324" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -70178,6 +73085,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE325" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -70274,6 +73190,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE326" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -70370,6 +73295,15 @@
           <t>Left Wing</t>
         </is>
       </c>
+      <c r="AE327" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -70466,6 +73400,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -70562,6 +73505,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE329" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -70658,6 +73610,15 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -70754,6 +73715,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -70850,6 +73820,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE332" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -70946,6 +73925,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -71042,6 +74030,15 @@
           <t>Blindside Flanker</t>
         </is>
       </c>
+      <c r="AE334" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -71138,6 +74135,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -71234,6 +74240,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -71330,6 +74345,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -71426,6 +74450,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -71522,6 +74555,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -71618,6 +74660,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE340" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -71714,6 +74765,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE341" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -71810,6 +74870,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -71906,6 +74975,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -72002,6 +75080,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE344" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -72098,6 +75185,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE345" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -72194,6 +75290,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE346" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -72290,6 +75395,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE347" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -72386,6 +75500,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE348" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -72482,6 +75605,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE349" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -72578,6 +75710,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE350" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -72674,6 +75815,15 @@
           <t>Hooker</t>
         </is>
       </c>
+      <c r="AE351" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -72770,6 +75920,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -72866,6 +76025,15 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -72962,6 +76130,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE354" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -73058,6 +76235,15 @@
           <t>Outside Centre</t>
         </is>
       </c>
+      <c r="AE355" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -73154,6 +76340,15 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE356" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -73250,6 +76445,15 @@
           <t>Inside Centre</t>
         </is>
       </c>
+      <c r="AE357" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -73346,6 +76550,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -73442,6 +76655,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE359" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -73538,6 +76760,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE360" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -73634,6 +76865,15 @@
           <t>Lock 4</t>
         </is>
       </c>
+      <c r="AE361" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -73730,6 +76970,15 @@
           <t>Lock 5</t>
         </is>
       </c>
+      <c r="AE362" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -73826,6 +77075,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -73922,6 +77180,15 @@
           <t>Number 8</t>
         </is>
       </c>
+      <c r="AE364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -74018,6 +77285,15 @@
           <t>Openside Flanker</t>
         </is>
       </c>
+      <c r="AE365" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -74114,6 +77390,15 @@
           <t>Fly Half</t>
         </is>
       </c>
+      <c r="AE366" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -74210,6 +77495,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE367" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -74306,6 +77600,15 @@
           <t>Tight Head Prop</t>
         </is>
       </c>
+      <c r="AE368" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -74402,6 +77705,15 @@
           <t>Loose Head Prop</t>
         </is>
       </c>
+      <c r="AE369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -74497,6 +77809,15 @@
         <is>
           <t>Hooker</t>
         </is>
+      </c>
+      <c r="AE370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -1513,6 +1513,66 @@
           <t>England</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1563,6 +1623,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1943,6 +2063,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3423,6 +3603,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4793,6 +5033,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5283,6 +5583,66 @@
           <t>Wales</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5333,6 +5693,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5383,6 +5803,66 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5983,6 +6463,66 @@
           <t>England</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6033,6 +6573,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6303,6 +6903,66 @@
           <t>France</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6463,6 +7123,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6623,6 +7343,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7003,6 +7783,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7053,6 +7893,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7763,6 +8663,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8583,6 +9543,66 @@
           <t>Wales</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9293,6 +10313,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10003,6 +11083,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10273,6 +11413,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10653,6 +11853,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11033,6 +12293,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11523,6 +12843,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13003,6 +14383,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13383,6 +14823,66 @@
           <t>England</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13543,6 +15043,66 @@
           <t>England</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13703,6 +15263,66 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13863,6 +15483,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14023,6 +15703,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14293,6 +16033,66 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14343,6 +16143,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15273,6 +17133,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15763,6 +17683,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16473,6 +18453,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16523,6 +18563,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16793,6 +18893,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" t="n">
+        <v>0</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17833,6 +19993,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17883,6 +20103,66 @@
           <t>Wales</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17933,6 +20213,66 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17983,6 +20323,66 @@
           <t>Wales</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19353,6 +21753,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19623,6 +22083,66 @@
           <t>-</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19782,6 +22302,66 @@
         <is>
           <t>Scotland</t>
         </is>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -20739,6 +23319,90 @@
           <t>James Tracy</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
           <t>Hooker</t>
@@ -21411,6 +24075,90 @@
           <t>Dave Kearney</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
       <c r="AD15" t="inlineStr">
         <is>
           <t>Right Wing</t>
@@ -21759,6 +24507,90 @@
           <t>Stuart McCloskey</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
       <c r="AD19" t="inlineStr">
         <is>
           <t>Inside Centre</t>
@@ -22215,6 +25047,90 @@
           <t>Tadgh Beirne</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
       <c r="AD24" t="inlineStr">
         <is>
           <t>Lock 5</t>
@@ -22671,6 +25587,90 @@
           <t>Selevasio Tolofua</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
       <c r="AD29" t="inlineStr">
         <is>
           <t>-</t>
@@ -23235,6 +26235,90 @@
           <t>Henry Pyrgos</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
       <c r="AD35" t="inlineStr">
         <is>
           <t>Scrum Half</t>
@@ -25527,6 +28611,90 @@
           <t>Matt Scott</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
       <c r="AD57" t="inlineStr">
         <is>
           <t>Outside Centre</t>
@@ -25875,6 +29043,90 @@
           <t>Luke Crosbie</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
       <c r="AD61" t="inlineStr">
         <is>
           <t>-</t>
@@ -27303,6 +30555,90 @@
           <t>Josh Van der Flier</t>
         </is>
       </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
       <c r="AD75" t="inlineStr">
         <is>
           <t>Openside Flanker</t>
@@ -29595,6 +32931,90 @@
           <t>Alexandre Fischer</t>
         </is>
       </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
       <c r="AD97" t="inlineStr">
         <is>
           <t>-</t>
@@ -29835,6 +33255,90 @@
           <t>Gabriel Ngandebe</t>
         </is>
       </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0</v>
+      </c>
       <c r="AD100" t="inlineStr">
         <is>
           <t>-</t>
@@ -31155,6 +34659,90 @@
           <t>Anthony Etrillard</t>
         </is>
       </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
       <c r="AD113" t="inlineStr">
         <is>
           <t>-</t>
@@ -32475,6 +36063,90 @@
           <t>Owen Lane</t>
         </is>
       </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
       <c r="AD126" t="inlineStr">
         <is>
           <t>Right Wing</t>
@@ -32499,6 +36171,90 @@
           <t>Alex Moon</t>
         </is>
       </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
       <c r="AD127" t="inlineStr">
         <is>
           <t>-</t>
@@ -33495,6 +37251,90 @@
           <t>Lester Etien</t>
         </is>
       </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
       <c r="AD137" t="inlineStr">
         <is>
           <t>-</t>
@@ -33627,6 +37467,90 @@
           <t>Ratu Tagive</t>
         </is>
       </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
       <c r="AD139" t="inlineStr">
         <is>
           <t>-</t>
@@ -33867,6 +37791,90 @@
           <t>Jamie Bhattie</t>
         </is>
       </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
       <c r="AD142" t="inlineStr">
         <is>
           <t>Loose Head Prop</t>
@@ -33891,6 +37899,90 @@
           <t>Coenie Oosthuizen</t>
         </is>
       </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
       <c r="AD143" t="inlineStr">
         <is>
           <t>-</t>
@@ -34455,6 +38547,90 @@
           <t>Bernard Le Roux</t>
         </is>
       </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>0</v>
+      </c>
       <c r="AD149" t="inlineStr">
         <is>
           <t>Blindside Flanker</t>
@@ -34695,6 +38871,90 @@
           <t>Fraser Dingwall</t>
         </is>
       </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
       <c r="AD152" t="inlineStr">
         <is>
           <t>-</t>
@@ -34719,6 +38979,90 @@
           <t>Shane Daly</t>
         </is>
       </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
       <c r="AD153" t="inlineStr">
         <is>
           <t>Outside Centre</t>
@@ -34743,6 +39087,90 @@
           <t>Seb Davies</t>
         </is>
       </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
       <c r="AD154" t="inlineStr">
         <is>
           <t>Lock 4</t>
@@ -34983,6 +39411,90 @@
           <t>Thomas Gordon</t>
         </is>
       </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
       <c r="AD157" t="inlineStr">
         <is>
           <t>-</t>
@@ -35763,6 +40275,90 @@
           <t>Kylan Hamdaoui</t>
         </is>
       </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
       <c r="AD165" t="inlineStr">
         <is>
           <t>-</t>
@@ -36327,6 +40923,90 @@
           <t>Mohammed Haouas</t>
         </is>
       </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>0</v>
+      </c>
       <c r="AD171" t="inlineStr">
         <is>
           <t>Tight Head Prop</t>
@@ -36999,6 +41679,90 @@
           <t>Will John</t>
         </is>
       </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>0</v>
+      </c>
       <c r="AD178" t="inlineStr">
         <is>
           <t>-</t>
@@ -37131,6 +41895,90 @@
           <t>Sebastian Negri da Ollegio</t>
         </is>
       </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>0</v>
+      </c>
       <c r="AD180" t="inlineStr">
         <is>
           <t>Openside Flanker</t>
@@ -37803,6 +42651,90 @@
           <t>Owen Williams</t>
         </is>
       </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>0</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>0</v>
+      </c>
       <c r="AD187" t="inlineStr">
         <is>
           <t>Fly Half</t>
@@ -38259,6 +43191,90 @@
           <t>Elliott Dee</t>
         </is>
       </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>0</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
+      <c r="X192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>0</v>
+      </c>
       <c r="AD192" t="inlineStr">
         <is>
           <t>Hooker</t>
@@ -38391,6 +43407,90 @@
           <t>Gervais Cordin</t>
         </is>
       </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>0</v>
+      </c>
       <c r="AD194" t="inlineStr">
         <is>
           <t>-</t>
@@ -38631,6 +43731,90 @@
           <t>Julien Heriteau</t>
         </is>
       </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>0</v>
+      </c>
       <c r="AD197" t="inlineStr">
         <is>
           <t>-</t>
@@ -38762,6 +43946,90 @@
         <is>
           <t>Cornell Du Preez</t>
         </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>0</v>
       </c>
       <c r="AD199" t="inlineStr">
         <is>
